--- a/sqlpad/cache/vlJqTigQJzeYiDEi.xlsx
+++ b/sqlpad/cache/vlJqTigQJzeYiDEi.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C23"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -387,24 +387,244 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <v>14:55</v>
+        <v>15:10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="str">
-        <v>14:55</v>
+        <v>15:11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>434</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>15:12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>416</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>15:13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>422</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>15:14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>374</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>15:15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>867</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>15:16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>473</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>15:17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>726</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>15:18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>945</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>15:19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>376</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>15:20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>14</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>15:10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>486</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>15:11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>502</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>15:12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>485</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>15:13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>470</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>15:14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>501</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>15:15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>473</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <v>15:16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>494</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>15:17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>450</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <v>15:18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>441</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>15:19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>184</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>15:20</v>
       </c>
     </row>
   </sheetData>
